--- a/Stroop/data/resumen.xlsx
+++ b/Stroop/data/resumen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="22">
   <si>
     <t>index</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>eba</t>
+  </si>
+  <si>
+    <t>Esterix</t>
   </si>
   <si>
     <t>palabra_negra</t>
@@ -435,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G286"/>
+  <dimension ref="A1:G391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,7 +484,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -504,7 +507,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -527,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -550,7 +553,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -573,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -596,7 +599,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -619,7 +622,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -642,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -665,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -688,7 +691,7 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -711,7 +714,7 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -734,7 +737,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -757,7 +760,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -780,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -803,7 +806,7 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -826,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -849,7 +852,7 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -872,7 +875,7 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -895,7 +898,7 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -918,7 +921,7 @@
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -941,7 +944,7 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -964,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -987,7 +990,7 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1010,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1033,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1056,7 +1059,7 @@
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1079,7 +1082,7 @@
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1102,7 +1105,7 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1125,7 +1128,7 @@
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1148,7 +1151,7 @@
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1861,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1884,7 +1887,7 @@
         <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1907,7 +1910,7 @@
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1930,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1953,7 +1956,7 @@
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1976,7 +1979,7 @@
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1999,7 +2002,7 @@
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2022,7 +2025,7 @@
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2045,7 +2048,7 @@
         <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2068,7 +2071,7 @@
         <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2091,7 +2094,7 @@
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2114,7 +2117,7 @@
         <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2137,7 +2140,7 @@
         <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2160,7 +2163,7 @@
         <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2183,7 +2186,7 @@
         <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2206,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2229,7 +2232,7 @@
         <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2252,7 +2255,7 @@
         <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2275,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2298,7 +2301,7 @@
         <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2321,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2344,7 +2347,7 @@
         <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2367,7 +2370,7 @@
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2390,7 +2393,7 @@
         <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2413,7 +2416,7 @@
         <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2436,7 +2439,7 @@
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2459,7 +2462,7 @@
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2482,7 +2485,7 @@
         <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2505,7 +2508,7 @@
         <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2528,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2551,7 +2554,7 @@
         <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2574,7 +2577,7 @@
         <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2597,7 +2600,7 @@
         <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2620,7 +2623,7 @@
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2643,7 +2646,7 @@
         <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2666,7 +2669,7 @@
         <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2689,7 +2692,7 @@
         <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2712,7 +2715,7 @@
         <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2735,7 +2738,7 @@
         <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2758,7 +2761,7 @@
         <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2781,7 +2784,7 @@
         <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2804,7 +2807,7 @@
         <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2827,7 +2830,7 @@
         <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2850,7 +2853,7 @@
         <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2873,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2896,7 +2899,7 @@
         <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2919,7 +2922,7 @@
         <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2942,7 +2945,7 @@
         <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2965,7 +2968,7 @@
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2988,7 +2991,7 @@
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3011,7 +3014,7 @@
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3034,7 +3037,7 @@
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3057,7 +3060,7 @@
         <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3080,7 +3083,7 @@
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3103,7 +3106,7 @@
         <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3126,7 +3129,7 @@
         <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3149,7 +3152,7 @@
         <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3172,7 +3175,7 @@
         <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3195,7 +3198,7 @@
         <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3218,7 +3221,7 @@
         <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3931,7 +3934,7 @@
         <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3954,7 +3957,7 @@
         <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3977,7 +3980,7 @@
         <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4000,7 +4003,7 @@
         <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4023,7 +4026,7 @@
         <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4046,7 +4049,7 @@
         <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4069,7 +4072,7 @@
         <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4092,7 +4095,7 @@
         <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4115,7 +4118,7 @@
         <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4138,7 +4141,7 @@
         <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4161,7 +4164,7 @@
         <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4184,7 +4187,7 @@
         <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4207,7 +4210,7 @@
         <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4230,7 +4233,7 @@
         <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4253,7 +4256,7 @@
         <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4276,7 +4279,7 @@
         <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4299,7 +4302,7 @@
         <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4322,7 +4325,7 @@
         <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4345,7 +4348,7 @@
         <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4368,7 +4371,7 @@
         <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4391,7 +4394,7 @@
         <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4414,7 +4417,7 @@
         <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4437,7 +4440,7 @@
         <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4460,7 +4463,7 @@
         <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4483,7 +4486,7 @@
         <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4506,7 +4509,7 @@
         <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4529,7 +4532,7 @@
         <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4552,7 +4555,7 @@
         <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4575,7 +4578,7 @@
         <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4598,7 +4601,7 @@
         <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4621,7 +4624,7 @@
         <v>14</v>
       </c>
       <c r="G182" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4644,7 +4647,7 @@
         <v>14</v>
       </c>
       <c r="G183" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4667,7 +4670,7 @@
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4690,7 +4693,7 @@
         <v>14</v>
       </c>
       <c r="G185" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4713,7 +4716,7 @@
         <v>14</v>
       </c>
       <c r="G186" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4736,7 +4739,7 @@
         <v>14</v>
       </c>
       <c r="G187" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4759,7 +4762,7 @@
         <v>14</v>
       </c>
       <c r="G188" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4782,7 +4785,7 @@
         <v>14</v>
       </c>
       <c r="G189" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4805,7 +4808,7 @@
         <v>14</v>
       </c>
       <c r="G190" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4828,7 +4831,7 @@
         <v>14</v>
       </c>
       <c r="G191" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4851,7 +4854,7 @@
         <v>14</v>
       </c>
       <c r="G192" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4874,7 +4877,7 @@
         <v>14</v>
       </c>
       <c r="G193" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4897,7 +4900,7 @@
         <v>14</v>
       </c>
       <c r="G194" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4920,7 +4923,7 @@
         <v>14</v>
       </c>
       <c r="G195" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4943,7 +4946,7 @@
         <v>14</v>
       </c>
       <c r="G196" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4966,7 +4969,7 @@
         <v>14</v>
       </c>
       <c r="G197" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4989,7 +4992,7 @@
         <v>14</v>
       </c>
       <c r="G198" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5012,7 +5015,7 @@
         <v>14</v>
       </c>
       <c r="G199" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5035,7 +5038,7 @@
         <v>14</v>
       </c>
       <c r="G200" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5058,7 +5061,7 @@
         <v>14</v>
       </c>
       <c r="G201" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5081,7 +5084,7 @@
         <v>14</v>
       </c>
       <c r="G202" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5104,7 +5107,7 @@
         <v>14</v>
       </c>
       <c r="G203" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5127,7 +5130,7 @@
         <v>14</v>
       </c>
       <c r="G204" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5150,7 +5153,7 @@
         <v>14</v>
       </c>
       <c r="G205" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5173,7 +5176,7 @@
         <v>14</v>
       </c>
       <c r="G206" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5196,7 +5199,7 @@
         <v>14</v>
       </c>
       <c r="G207" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5219,7 +5222,7 @@
         <v>14</v>
       </c>
       <c r="G208" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5242,7 +5245,7 @@
         <v>14</v>
       </c>
       <c r="G209" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5265,7 +5268,7 @@
         <v>14</v>
       </c>
       <c r="G210" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5288,7 +5291,7 @@
         <v>14</v>
       </c>
       <c r="G211" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5311,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="G212" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5334,7 +5337,7 @@
         <v>14</v>
       </c>
       <c r="G213" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5357,7 +5360,7 @@
         <v>14</v>
       </c>
       <c r="G214" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5380,7 +5383,7 @@
         <v>14</v>
       </c>
       <c r="G215" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5403,7 +5406,7 @@
         <v>14</v>
       </c>
       <c r="G216" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6231,7 +6234,7 @@
         <v>14</v>
       </c>
       <c r="G252" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6254,7 +6257,7 @@
         <v>14</v>
       </c>
       <c r="G253" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6277,7 +6280,7 @@
         <v>14</v>
       </c>
       <c r="G254" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6300,7 +6303,7 @@
         <v>14</v>
       </c>
       <c r="G255" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6323,7 +6326,7 @@
         <v>14</v>
       </c>
       <c r="G256" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6346,7 +6349,7 @@
         <v>14</v>
       </c>
       <c r="G257" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6369,7 +6372,7 @@
         <v>14</v>
       </c>
       <c r="G258" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6392,7 +6395,7 @@
         <v>14</v>
       </c>
       <c r="G259" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6415,7 +6418,7 @@
         <v>14</v>
       </c>
       <c r="G260" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6438,7 +6441,7 @@
         <v>14</v>
       </c>
       <c r="G261" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6461,7 +6464,7 @@
         <v>14</v>
       </c>
       <c r="G262" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6484,7 +6487,7 @@
         <v>14</v>
       </c>
       <c r="G263" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6507,7 +6510,7 @@
         <v>14</v>
       </c>
       <c r="G264" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6530,7 +6533,7 @@
         <v>14</v>
       </c>
       <c r="G265" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6553,7 +6556,7 @@
         <v>14</v>
       </c>
       <c r="G266" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6576,7 +6579,7 @@
         <v>14</v>
       </c>
       <c r="G267" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6599,7 +6602,7 @@
         <v>14</v>
       </c>
       <c r="G268" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6622,7 +6625,7 @@
         <v>14</v>
       </c>
       <c r="G269" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6645,7 +6648,7 @@
         <v>14</v>
       </c>
       <c r="G270" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6668,7 +6671,7 @@
         <v>14</v>
       </c>
       <c r="G271" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6691,7 +6694,7 @@
         <v>14</v>
       </c>
       <c r="G272" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6714,7 +6717,7 @@
         <v>14</v>
       </c>
       <c r="G273" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6737,7 +6740,7 @@
         <v>14</v>
       </c>
       <c r="G274" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6760,7 +6763,7 @@
         <v>14</v>
       </c>
       <c r="G275" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6783,7 +6786,7 @@
         <v>14</v>
       </c>
       <c r="G276" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6806,7 +6809,7 @@
         <v>14</v>
       </c>
       <c r="G277" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6829,7 +6832,7 @@
         <v>14</v>
       </c>
       <c r="G278" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6852,7 +6855,7 @@
         <v>14</v>
       </c>
       <c r="G279" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6875,7 +6878,7 @@
         <v>14</v>
       </c>
       <c r="G280" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6898,7 +6901,7 @@
         <v>14</v>
       </c>
       <c r="G281" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6921,7 +6924,7 @@
         <v>14</v>
       </c>
       <c r="G282" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6944,7 +6947,7 @@
         <v>14</v>
       </c>
       <c r="G283" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6967,7 +6970,7 @@
         <v>14</v>
       </c>
       <c r="G284" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6990,7 +6993,7 @@
         <v>14</v>
       </c>
       <c r="G285" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -7013,7 +7016,2422 @@
         <v>14</v>
       </c>
       <c r="G286" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" t="s">
+        <v>11</v>
+      </c>
+      <c r="E287">
+        <v>1.320059899939224</v>
+      </c>
+      <c r="F287" t="s">
+        <v>15</v>
+      </c>
+      <c r="G287" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288" t="s">
+        <v>9</v>
+      </c>
+      <c r="D288" t="s">
+        <v>11</v>
+      </c>
+      <c r="E288">
+        <v>0.6884761000983417</v>
+      </c>
+      <c r="F288" t="s">
+        <v>15</v>
+      </c>
+      <c r="G288" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+      <c r="C289" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289" t="s">
+        <v>11</v>
+      </c>
+      <c r="E289">
+        <v>0.614356700098142</v>
+      </c>
+      <c r="F289" t="s">
+        <v>15</v>
+      </c>
+      <c r="G289" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>3</v>
+      </c>
+      <c r="C290" t="s">
+        <v>9</v>
+      </c>
+      <c r="D290" t="s">
+        <v>11</v>
+      </c>
+      <c r="E290">
+        <v>0.5003243000246584</v>
+      </c>
+      <c r="F290" t="s">
+        <v>15</v>
+      </c>
+      <c r="G290" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>4</v>
+      </c>
+      <c r="C291" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" t="s">
+        <v>11</v>
+      </c>
+      <c r="E291">
+        <v>0.5900140001904219</v>
+      </c>
+      <c r="F291" t="s">
+        <v>15</v>
+      </c>
+      <c r="G291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>7</v>
+      </c>
+      <c r="D292" t="s">
+        <v>11</v>
+      </c>
+      <c r="E292">
+        <v>0.662906700046733</v>
+      </c>
+      <c r="F292" t="s">
+        <v>15</v>
+      </c>
+      <c r="G292" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>6</v>
+      </c>
+      <c r="C293" t="s">
+        <v>9</v>
+      </c>
+      <c r="D293" t="s">
+        <v>11</v>
+      </c>
+      <c r="E293">
+        <v>0.6619291000533849</v>
+      </c>
+      <c r="F293" t="s">
+        <v>15</v>
+      </c>
+      <c r="G293" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>7</v>
+      </c>
+      <c r="C294" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" t="s">
+        <v>11</v>
+      </c>
+      <c r="E294">
+        <v>0.6942355001810938</v>
+      </c>
+      <c r="F294" t="s">
+        <v>15</v>
+      </c>
+      <c r="G294" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>8</v>
+      </c>
+      <c r="C295" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" t="s">
+        <v>11</v>
+      </c>
+      <c r="E295">
+        <v>0.6123398998752236</v>
+      </c>
+      <c r="F295" t="s">
+        <v>15</v>
+      </c>
+      <c r="G295" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>9</v>
+      </c>
+      <c r="C296" t="s">
+        <v>7</v>
+      </c>
+      <c r="D296" t="s">
+        <v>11</v>
+      </c>
+      <c r="E296">
+        <v>0.7460753000341356</v>
+      </c>
+      <c r="F296" t="s">
+        <v>15</v>
+      </c>
+      <c r="G296" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>10</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" t="s">
+        <v>11</v>
+      </c>
+      <c r="E297">
+        <v>0.7610554001294076</v>
+      </c>
+      <c r="F297" t="s">
+        <v>15</v>
+      </c>
+      <c r="G297" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>11</v>
+      </c>
+      <c r="C298" t="s">
+        <v>7</v>
+      </c>
+      <c r="D298" t="s">
+        <v>11</v>
+      </c>
+      <c r="E298">
+        <v>0.6751063000410795</v>
+      </c>
+      <c r="F298" t="s">
+        <v>15</v>
+      </c>
+      <c r="G298" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>12</v>
+      </c>
+      <c r="C299" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" t="s">
+        <v>11</v>
+      </c>
+      <c r="E299">
+        <v>0.6600109001155943</v>
+      </c>
+      <c r="F299" t="s">
+        <v>15</v>
+      </c>
+      <c r="G299" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>13</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="s">
+        <v>11</v>
+      </c>
+      <c r="E300">
+        <v>0.6107898000627756</v>
+      </c>
+      <c r="F300" t="s">
+        <v>15</v>
+      </c>
+      <c r="G300" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>14</v>
+      </c>
+      <c r="C301" t="s">
+        <v>8</v>
+      </c>
+      <c r="D301" t="s">
+        <v>11</v>
+      </c>
+      <c r="E301">
+        <v>1.274585400009528</v>
+      </c>
+      <c r="F301" t="s">
+        <v>15</v>
+      </c>
+      <c r="G301" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" t="s">
+        <v>11</v>
+      </c>
+      <c r="E302">
+        <v>0.576076400000602</v>
+      </c>
+      <c r="F302" t="s">
+        <v>15</v>
+      </c>
+      <c r="G302" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>16</v>
+      </c>
+      <c r="C303" t="s">
+        <v>9</v>
+      </c>
+      <c r="D303" t="s">
+        <v>11</v>
+      </c>
+      <c r="E303">
+        <v>0.625320800114423</v>
+      </c>
+      <c r="F303" t="s">
+        <v>15</v>
+      </c>
+      <c r="G303" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>17</v>
+      </c>
+      <c r="C304" t="s">
+        <v>9</v>
+      </c>
+      <c r="D304" t="s">
+        <v>11</v>
+      </c>
+      <c r="E304">
+        <v>0.532878200057894</v>
+      </c>
+      <c r="F304" t="s">
+        <v>15</v>
+      </c>
+      <c r="G304" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>18</v>
+      </c>
+      <c r="C305" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305" t="s">
+        <v>11</v>
+      </c>
+      <c r="E305">
+        <v>0.6908358000218868</v>
+      </c>
+      <c r="F305" t="s">
+        <v>15</v>
+      </c>
+      <c r="G305" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>19</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" t="s">
+        <v>11</v>
+      </c>
+      <c r="E306">
+        <v>0.7162941000424325</v>
+      </c>
+      <c r="F306" t="s">
+        <v>15</v>
+      </c>
+      <c r="G306" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>20</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307">
+        <v>0.5311326999217272</v>
+      </c>
+      <c r="F307" t="s">
+        <v>15</v>
+      </c>
+      <c r="G307" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>21</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" t="s">
+        <v>11</v>
+      </c>
+      <c r="E308">
+        <v>0.5901919999159873</v>
+      </c>
+      <c r="F308" t="s">
+        <v>15</v>
+      </c>
+      <c r="G308" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>22</v>
+      </c>
+      <c r="C309" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309" t="s">
+        <v>11</v>
+      </c>
+      <c r="E309">
+        <v>0.7005736001301557</v>
+      </c>
+      <c r="F309" t="s">
+        <v>15</v>
+      </c>
+      <c r="G309" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>23</v>
+      </c>
+      <c r="C310" t="s">
+        <v>7</v>
+      </c>
+      <c r="D310" t="s">
+        <v>11</v>
+      </c>
+      <c r="E310">
+        <v>0.6196471999865025</v>
+      </c>
+      <c r="F310" t="s">
+        <v>15</v>
+      </c>
+      <c r="G310" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>24</v>
+      </c>
+      <c r="C311" t="s">
+        <v>7</v>
+      </c>
+      <c r="D311" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311">
+        <v>0.5823291998822242</v>
+      </c>
+      <c r="F311" t="s">
+        <v>15</v>
+      </c>
+      <c r="G311" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>25</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" t="s">
+        <v>11</v>
+      </c>
+      <c r="E312">
+        <v>0.7339937000069767</v>
+      </c>
+      <c r="F312" t="s">
+        <v>15</v>
+      </c>
+      <c r="G312" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>26</v>
+      </c>
+      <c r="C313" t="s">
+        <v>7</v>
+      </c>
+      <c r="D313" t="s">
+        <v>11</v>
+      </c>
+      <c r="E313">
+        <v>0.6805780997965485</v>
+      </c>
+      <c r="F313" t="s">
+        <v>15</v>
+      </c>
+      <c r="G313" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>27</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" t="s">
+        <v>11</v>
+      </c>
+      <c r="E314">
+        <v>0.6839189999736845</v>
+      </c>
+      <c r="F314" t="s">
+        <v>15</v>
+      </c>
+      <c r="G314" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>28</v>
+      </c>
+      <c r="C315" t="s">
+        <v>8</v>
+      </c>
+      <c r="D315" t="s">
+        <v>11</v>
+      </c>
+      <c r="E315">
+        <v>0.6801136001013219</v>
+      </c>
+      <c r="F315" t="s">
+        <v>15</v>
+      </c>
+      <c r="G315" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>29</v>
+      </c>
+      <c r="C316" t="s">
+        <v>8</v>
+      </c>
+      <c r="D316" t="s">
+        <v>11</v>
+      </c>
+      <c r="E316">
+        <v>0.5723374998196959</v>
+      </c>
+      <c r="F316" t="s">
+        <v>15</v>
+      </c>
+      <c r="G316" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>30</v>
+      </c>
+      <c r="C317" t="s">
+        <v>9</v>
+      </c>
+      <c r="D317" t="s">
+        <v>11</v>
+      </c>
+      <c r="E317">
+        <v>0.6628548998851329</v>
+      </c>
+      <c r="F317" t="s">
+        <v>15</v>
+      </c>
+      <c r="G317" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>31</v>
+      </c>
+      <c r="C318" t="s">
+        <v>9</v>
+      </c>
+      <c r="D318" t="s">
+        <v>11</v>
+      </c>
+      <c r="E318">
+        <v>0.593058800091967</v>
+      </c>
+      <c r="F318" t="s">
+        <v>15</v>
+      </c>
+      <c r="G318" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>32</v>
+      </c>
+      <c r="C319" t="s">
+        <v>9</v>
+      </c>
+      <c r="D319" t="s">
+        <v>11</v>
+      </c>
+      <c r="E319">
+        <v>0.6072823000140488</v>
+      </c>
+      <c r="F319" t="s">
+        <v>15</v>
+      </c>
+      <c r="G319" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>33</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" t="s">
+        <v>11</v>
+      </c>
+      <c r="E320">
+        <v>0.6543415999040008</v>
+      </c>
+      <c r="F320" t="s">
+        <v>15</v>
+      </c>
+      <c r="G320" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>34</v>
+      </c>
+      <c r="C321" t="s">
+        <v>9</v>
+      </c>
+      <c r="D321" t="s">
+        <v>11</v>
+      </c>
+      <c r="E321">
+        <v>0.6349627000745386</v>
+      </c>
+      <c r="F321" t="s">
+        <v>15</v>
+      </c>
+      <c r="G321" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>35</v>
+      </c>
+      <c r="C322" t="s">
+        <v>10</v>
+      </c>
+      <c r="D322" t="s">
+        <v>6</v>
+      </c>
+      <c r="E322">
+        <v>1.014551700092852</v>
+      </c>
+      <c r="F322" t="s">
+        <v>15</v>
+      </c>
+      <c r="G322" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>36</v>
+      </c>
+      <c r="C323" t="s">
+        <v>10</v>
+      </c>
+      <c r="D323" t="s">
+        <v>9</v>
+      </c>
+      <c r="E323">
+        <v>0.702294799964875</v>
+      </c>
+      <c r="F323" t="s">
+        <v>15</v>
+      </c>
+      <c r="G323" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>37</v>
+      </c>
+      <c r="C324" t="s">
+        <v>10</v>
+      </c>
+      <c r="D324" t="s">
+        <v>9</v>
+      </c>
+      <c r="E324">
+        <v>0.5595682000275701</v>
+      </c>
+      <c r="F324" t="s">
+        <v>15</v>
+      </c>
+      <c r="G324" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>38</v>
+      </c>
+      <c r="C325" t="s">
+        <v>10</v>
+      </c>
+      <c r="D325" t="s">
+        <v>9</v>
+      </c>
+      <c r="E325">
+        <v>0.5791732000652701</v>
+      </c>
+      <c r="F325" t="s">
+        <v>15</v>
+      </c>
+      <c r="G325" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>39</v>
+      </c>
+      <c r="C326" t="s">
+        <v>10</v>
+      </c>
+      <c r="D326" t="s">
+        <v>7</v>
+      </c>
+      <c r="E326">
+        <v>0.6469042999669909</v>
+      </c>
+      <c r="F326" t="s">
+        <v>15</v>
+      </c>
+      <c r="G326" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>40</v>
+      </c>
+      <c r="C327" t="s">
+        <v>10</v>
+      </c>
+      <c r="D327" t="s">
+        <v>9</v>
+      </c>
+      <c r="E327">
+        <v>0.6033316000830382</v>
+      </c>
+      <c r="F327" t="s">
+        <v>15</v>
+      </c>
+      <c r="G327" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>41</v>
+      </c>
+      <c r="C328" t="s">
+        <v>10</v>
+      </c>
+      <c r="D328" t="s">
+        <v>6</v>
+      </c>
+      <c r="E328">
+        <v>0.6470135999843478</v>
+      </c>
+      <c r="F328" t="s">
+        <v>15</v>
+      </c>
+      <c r="G328" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>42</v>
+      </c>
+      <c r="C329" t="s">
+        <v>10</v>
+      </c>
+      <c r="D329" t="s">
+        <v>8</v>
+      </c>
+      <c r="E329">
+        <v>0.6477567001711577</v>
+      </c>
+      <c r="F329" t="s">
+        <v>15</v>
+      </c>
+      <c r="G329" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>43</v>
+      </c>
+      <c r="C330" t="s">
+        <v>10</v>
+      </c>
+      <c r="D330" t="s">
+        <v>7</v>
+      </c>
+      <c r="E330">
+        <v>0.6512198999989778</v>
+      </c>
+      <c r="F330" t="s">
+        <v>15</v>
+      </c>
+      <c r="G330" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>44</v>
+      </c>
+      <c r="C331" t="s">
+        <v>10</v>
+      </c>
+      <c r="D331" t="s">
+        <v>9</v>
+      </c>
+      <c r="E331">
+        <v>0.6262821999844164</v>
+      </c>
+      <c r="F331" t="s">
+        <v>15</v>
+      </c>
+      <c r="G331" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>45</v>
+      </c>
+      <c r="C332" t="s">
+        <v>10</v>
+      </c>
+      <c r="D332" t="s">
+        <v>6</v>
+      </c>
+      <c r="E332">
+        <v>0.6649660000111908</v>
+      </c>
+      <c r="F332" t="s">
+        <v>15</v>
+      </c>
+      <c r="G332" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>46</v>
+      </c>
+      <c r="C333" t="s">
+        <v>10</v>
+      </c>
+      <c r="D333" t="s">
+        <v>7</v>
+      </c>
+      <c r="E333">
+        <v>0.7820514000486583</v>
+      </c>
+      <c r="F333" t="s">
+        <v>15</v>
+      </c>
+      <c r="G333" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>47</v>
+      </c>
+      <c r="C334" t="s">
+        <v>10</v>
+      </c>
+      <c r="D334" t="s">
+        <v>8</v>
+      </c>
+      <c r="E334">
+        <v>0.700504400068894</v>
+      </c>
+      <c r="F334" t="s">
+        <v>15</v>
+      </c>
+      <c r="G334" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>48</v>
+      </c>
+      <c r="C335" t="s">
+        <v>10</v>
+      </c>
+      <c r="D335" t="s">
+        <v>8</v>
+      </c>
+      <c r="E335">
+        <v>0.632281000027433</v>
+      </c>
+      <c r="F335" t="s">
+        <v>15</v>
+      </c>
+      <c r="G335" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>49</v>
+      </c>
+      <c r="C336" t="s">
+        <v>10</v>
+      </c>
+      <c r="D336" t="s">
+        <v>6</v>
+      </c>
+      <c r="E336">
+        <v>0.7638858000282198</v>
+      </c>
+      <c r="F336" t="s">
+        <v>15</v>
+      </c>
+      <c r="G336" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>50</v>
+      </c>
+      <c r="C337" t="s">
+        <v>10</v>
+      </c>
+      <c r="D337" t="s">
+        <v>8</v>
+      </c>
+      <c r="E337">
+        <v>0.7165735000744462</v>
+      </c>
+      <c r="F337" t="s">
+        <v>15</v>
+      </c>
+      <c r="G337" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>51</v>
+      </c>
+      <c r="C338" t="s">
+        <v>10</v>
+      </c>
+      <c r="D338" t="s">
+        <v>9</v>
+      </c>
+      <c r="E338">
+        <v>1.018903200048953</v>
+      </c>
+      <c r="F338" t="s">
+        <v>15</v>
+      </c>
+      <c r="G338" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>52</v>
+      </c>
+      <c r="C339" t="s">
+        <v>10</v>
+      </c>
+      <c r="D339" t="s">
+        <v>6</v>
+      </c>
+      <c r="E339">
+        <v>0.7103489998262376</v>
+      </c>
+      <c r="F339" t="s">
+        <v>15</v>
+      </c>
+      <c r="G339" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>53</v>
+      </c>
+      <c r="C340" t="s">
+        <v>10</v>
+      </c>
+      <c r="D340" t="s">
+        <v>6</v>
+      </c>
+      <c r="E340">
+        <v>0.6318091999273747</v>
+      </c>
+      <c r="F340" t="s">
+        <v>15</v>
+      </c>
+      <c r="G340" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>54</v>
+      </c>
+      <c r="C341" t="s">
+        <v>10</v>
+      </c>
+      <c r="D341" t="s">
+        <v>7</v>
+      </c>
+      <c r="E341">
+        <v>0.587759800022468</v>
+      </c>
+      <c r="F341" t="s">
+        <v>15</v>
+      </c>
+      <c r="G341" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>55</v>
+      </c>
+      <c r="C342" t="s">
+        <v>10</v>
+      </c>
+      <c r="D342" t="s">
+        <v>7</v>
+      </c>
+      <c r="E342">
+        <v>0.5983872001525015</v>
+      </c>
+      <c r="F342" t="s">
+        <v>15</v>
+      </c>
+      <c r="G342" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>56</v>
+      </c>
+      <c r="C343" t="s">
+        <v>10</v>
+      </c>
+      <c r="D343" t="s">
+        <v>6</v>
+      </c>
+      <c r="E343">
+        <v>0.926255099941045</v>
+      </c>
+      <c r="F343" t="s">
+        <v>15</v>
+      </c>
+      <c r="G343" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>57</v>
+      </c>
+      <c r="C344" t="s">
+        <v>10</v>
+      </c>
+      <c r="D344" t="s">
+        <v>6</v>
+      </c>
+      <c r="E344">
+        <v>1.490575300063938</v>
+      </c>
+      <c r="F344" t="s">
+        <v>15</v>
+      </c>
+      <c r="G344" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>58</v>
+      </c>
+      <c r="C345" t="s">
+        <v>10</v>
+      </c>
+      <c r="D345" t="s">
+        <v>9</v>
+      </c>
+      <c r="E345">
+        <v>0.7265063000377268</v>
+      </c>
+      <c r="F345" t="s">
+        <v>15</v>
+      </c>
+      <c r="G345" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>59</v>
+      </c>
+      <c r="C346" t="s">
+        <v>10</v>
+      </c>
+      <c r="D346" t="s">
+        <v>6</v>
+      </c>
+      <c r="E346">
+        <v>0.6002913999836892</v>
+      </c>
+      <c r="F346" t="s">
+        <v>15</v>
+      </c>
+      <c r="G346" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>60</v>
+      </c>
+      <c r="C347" t="s">
+        <v>10</v>
+      </c>
+      <c r="D347" t="s">
+        <v>8</v>
+      </c>
+      <c r="E347">
+        <v>0.6317939998116344</v>
+      </c>
+      <c r="F347" t="s">
+        <v>15</v>
+      </c>
+      <c r="G347" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>61</v>
+      </c>
+      <c r="C348" t="s">
+        <v>10</v>
+      </c>
+      <c r="D348" t="s">
+        <v>9</v>
+      </c>
+      <c r="E348">
+        <v>0.733449500054121</v>
+      </c>
+      <c r="F348" t="s">
+        <v>15</v>
+      </c>
+      <c r="G348" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>62</v>
+      </c>
+      <c r="C349" t="s">
+        <v>10</v>
+      </c>
+      <c r="D349" t="s">
+        <v>7</v>
+      </c>
+      <c r="E349">
+        <v>0.6399655998684466</v>
+      </c>
+      <c r="F349" t="s">
+        <v>15</v>
+      </c>
+      <c r="G349" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>63</v>
+      </c>
+      <c r="C350" t="s">
+        <v>10</v>
+      </c>
+      <c r="D350" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350">
+        <v>0.6184815000742674</v>
+      </c>
+      <c r="F350" t="s">
+        <v>15</v>
+      </c>
+      <c r="G350" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>64</v>
+      </c>
+      <c r="C351" t="s">
+        <v>10</v>
+      </c>
+      <c r="D351" t="s">
+        <v>7</v>
+      </c>
+      <c r="E351">
+        <v>0.5568395999725908</v>
+      </c>
+      <c r="F351" t="s">
+        <v>15</v>
+      </c>
+      <c r="G351" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>65</v>
+      </c>
+      <c r="C352" t="s">
+        <v>10</v>
+      </c>
+      <c r="D352" t="s">
+        <v>7</v>
+      </c>
+      <c r="E352">
+        <v>0.595769900130108</v>
+      </c>
+      <c r="F352" t="s">
+        <v>15</v>
+      </c>
+      <c r="G352" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>66</v>
+      </c>
+      <c r="C353" t="s">
+        <v>10</v>
+      </c>
+      <c r="D353" t="s">
+        <v>8</v>
+      </c>
+      <c r="E353">
+        <v>1.172975099878386</v>
+      </c>
+      <c r="F353" t="s">
+        <v>15</v>
+      </c>
+      <c r="G353" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>67</v>
+      </c>
+      <c r="C354" t="s">
+        <v>10</v>
+      </c>
+      <c r="D354" t="s">
+        <v>8</v>
+      </c>
+      <c r="E354">
+        <v>0.6655039000324905</v>
+      </c>
+      <c r="F354" t="s">
+        <v>15</v>
+      </c>
+      <c r="G354" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>68</v>
+      </c>
+      <c r="C355" t="s">
+        <v>10</v>
+      </c>
+      <c r="D355" t="s">
+        <v>9</v>
+      </c>
+      <c r="E355">
+        <v>0.7206633000168949</v>
+      </c>
+      <c r="F355" t="s">
+        <v>15</v>
+      </c>
+      <c r="G355" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>69</v>
+      </c>
+      <c r="C356" t="s">
+        <v>10</v>
+      </c>
+      <c r="D356" t="s">
+        <v>8</v>
+      </c>
+      <c r="E356">
+        <v>0.6899570999667048</v>
+      </c>
+      <c r="F356" t="s">
+        <v>15</v>
+      </c>
+      <c r="G356" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>70</v>
+      </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" t="s">
+        <v>8</v>
+      </c>
+      <c r="E357">
+        <v>2.371842300053686</v>
+      </c>
+      <c r="F357" t="s">
+        <v>15</v>
+      </c>
+      <c r="G357" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>71</v>
+      </c>
+      <c r="C358" t="s">
+        <v>7</v>
+      </c>
+      <c r="D358" t="s">
+        <v>8</v>
+      </c>
+      <c r="E358">
+        <v>0.8147581999655813</v>
+      </c>
+      <c r="F358" t="s">
+        <v>15</v>
+      </c>
+      <c r="G358" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>72</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359" t="s">
+        <v>9</v>
+      </c>
+      <c r="E359">
+        <v>0.8013824000954628</v>
+      </c>
+      <c r="F359" t="s">
+        <v>15</v>
+      </c>
+      <c r="G359" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>73</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" t="s">
+        <v>7</v>
+      </c>
+      <c r="E360">
+        <v>0.8227353000547737</v>
+      </c>
+      <c r="F360" t="s">
+        <v>15</v>
+      </c>
+      <c r="G360" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>74</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" t="s">
+        <v>9</v>
+      </c>
+      <c r="E361">
+        <v>0.8684714001137763</v>
+      </c>
+      <c r="F361" t="s">
+        <v>15</v>
+      </c>
+      <c r="G361" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>75</v>
+      </c>
+      <c r="C362" t="s">
+        <v>9</v>
+      </c>
+      <c r="D362" t="s">
+        <v>6</v>
+      </c>
+      <c r="E362">
+        <v>1.115713000064716</v>
+      </c>
+      <c r="F362" t="s">
+        <v>15</v>
+      </c>
+      <c r="G362" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>76</v>
+      </c>
+      <c r="C363" t="s">
+        <v>9</v>
+      </c>
+      <c r="D363" t="s">
+        <v>6</v>
+      </c>
+      <c r="E363">
+        <v>0.5810225000604987</v>
+      </c>
+      <c r="F363" t="s">
+        <v>15</v>
+      </c>
+      <c r="G363" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>77</v>
+      </c>
+      <c r="C364" t="s">
+        <v>8</v>
+      </c>
+      <c r="D364" t="s">
+        <v>6</v>
+      </c>
+      <c r="E364">
+        <v>1.157220400171354</v>
+      </c>
+      <c r="F364" t="s">
+        <v>15</v>
+      </c>
+      <c r="G364" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>78</v>
+      </c>
+      <c r="C365" t="s">
+        <v>9</v>
+      </c>
+      <c r="D365" t="s">
+        <v>6</v>
+      </c>
+      <c r="E365">
+        <v>0.7606270001269877</v>
+      </c>
+      <c r="F365" t="s">
+        <v>15</v>
+      </c>
+      <c r="G365" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>79</v>
+      </c>
+      <c r="C366" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" t="s">
+        <v>8</v>
+      </c>
+      <c r="E366">
+        <v>0.7662526001222432</v>
+      </c>
+      <c r="F366" t="s">
+        <v>15</v>
+      </c>
+      <c r="G366" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>80</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" t="s">
+        <v>7</v>
+      </c>
+      <c r="E367">
+        <v>0.6983170998282731</v>
+      </c>
+      <c r="F367" t="s">
+        <v>15</v>
+      </c>
+      <c r="G367" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>81</v>
+      </c>
+      <c r="C368" t="s">
+        <v>9</v>
+      </c>
+      <c r="D368" t="s">
+        <v>8</v>
+      </c>
+      <c r="E368">
+        <v>0.6676745999138802</v>
+      </c>
+      <c r="F368" t="s">
+        <v>15</v>
+      </c>
+      <c r="G368" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>82</v>
+      </c>
+      <c r="C369" t="s">
+        <v>7</v>
+      </c>
+      <c r="D369" t="s">
+        <v>9</v>
+      </c>
+      <c r="E369">
+        <v>2.247996800113469</v>
+      </c>
+      <c r="F369" t="s">
+        <v>15</v>
+      </c>
+      <c r="G369" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>83</v>
+      </c>
+      <c r="C370" t="s">
+        <v>7</v>
+      </c>
+      <c r="D370" t="s">
+        <v>6</v>
+      </c>
+      <c r="E370">
+        <v>0.9196029999293387</v>
+      </c>
+      <c r="F370" t="s">
+        <v>15</v>
+      </c>
+      <c r="G370" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>84</v>
+      </c>
+      <c r="C371" t="s">
+        <v>7</v>
+      </c>
+      <c r="D371" t="s">
+        <v>8</v>
+      </c>
+      <c r="E371">
+        <v>0.855994800105691</v>
+      </c>
+      <c r="F371" t="s">
+        <v>15</v>
+      </c>
+      <c r="G371" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>85</v>
+      </c>
+      <c r="C372" t="s">
+        <v>8</v>
+      </c>
+      <c r="D372" t="s">
+        <v>6</v>
+      </c>
+      <c r="E372">
+        <v>0.9943903000093997</v>
+      </c>
+      <c r="F372" t="s">
+        <v>15</v>
+      </c>
+      <c r="G372" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>86</v>
+      </c>
+      <c r="C373" t="s">
+        <v>9</v>
+      </c>
+      <c r="D373" t="s">
+        <v>7</v>
+      </c>
+      <c r="E373">
+        <v>1.291905000107363</v>
+      </c>
+      <c r="F373" t="s">
+        <v>15</v>
+      </c>
+      <c r="G373" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>87</v>
+      </c>
+      <c r="C374" t="s">
+        <v>8</v>
+      </c>
+      <c r="D374" t="s">
+        <v>6</v>
+      </c>
+      <c r="E374">
+        <v>0.8969402001239359</v>
+      </c>
+      <c r="F374" t="s">
+        <v>15</v>
+      </c>
+      <c r="G374" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>88</v>
+      </c>
+      <c r="C375" t="s">
+        <v>7</v>
+      </c>
+      <c r="D375" t="s">
+        <v>6</v>
+      </c>
+      <c r="E375">
+        <v>0.6588425999507308</v>
+      </c>
+      <c r="F375" t="s">
+        <v>15</v>
+      </c>
+      <c r="G375" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>89</v>
+      </c>
+      <c r="C376" t="s">
+        <v>8</v>
+      </c>
+      <c r="D376" t="s">
+        <v>7</v>
+      </c>
+      <c r="E376">
+        <v>1.115977400215343</v>
+      </c>
+      <c r="F376" t="s">
+        <v>15</v>
+      </c>
+      <c r="G376" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>90</v>
+      </c>
+      <c r="C377" t="s">
+        <v>9</v>
+      </c>
+      <c r="D377" t="s">
+        <v>7</v>
+      </c>
+      <c r="E377">
+        <v>0.7094471000600606</v>
+      </c>
+      <c r="F377" t="s">
+        <v>15</v>
+      </c>
+      <c r="G377" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>91</v>
+      </c>
+      <c r="C378" t="s">
+        <v>7</v>
+      </c>
+      <c r="D378" t="s">
+        <v>9</v>
+      </c>
+      <c r="E378">
+        <v>0.5729941001627594</v>
+      </c>
+      <c r="F378" t="s">
+        <v>15</v>
+      </c>
+      <c r="G378" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>92</v>
+      </c>
+      <c r="C379" t="s">
+        <v>9</v>
+      </c>
+      <c r="D379" t="s">
+        <v>8</v>
+      </c>
+      <c r="E379">
+        <v>0.6531793000176549</v>
+      </c>
+      <c r="F379" t="s">
+        <v>15</v>
+      </c>
+      <c r="G379" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>93</v>
+      </c>
+      <c r="C380" t="s">
+        <v>8</v>
+      </c>
+      <c r="D380" t="s">
+        <v>9</v>
+      </c>
+      <c r="E380">
+        <v>0.9061515999492258</v>
+      </c>
+      <c r="F380" t="s">
+        <v>15</v>
+      </c>
+      <c r="G380" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>94</v>
+      </c>
+      <c r="C381" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381" t="s">
+        <v>8</v>
+      </c>
+      <c r="E381">
+        <v>1.594671200029552</v>
+      </c>
+      <c r="F381" t="s">
+        <v>15</v>
+      </c>
+      <c r="G381" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>95</v>
+      </c>
+      <c r="C382" t="s">
+        <v>8</v>
+      </c>
+      <c r="D382" t="s">
+        <v>7</v>
+      </c>
+      <c r="E382">
+        <v>1.173046099953353</v>
+      </c>
+      <c r="F382" t="s">
+        <v>15</v>
+      </c>
+      <c r="G382" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>96</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" t="s">
+        <v>9</v>
+      </c>
+      <c r="E383">
+        <v>1.862721299985424</v>
+      </c>
+      <c r="F383" t="s">
+        <v>15</v>
+      </c>
+      <c r="G383" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>97</v>
+      </c>
+      <c r="C384" t="s">
+        <v>9</v>
+      </c>
+      <c r="D384" t="s">
+        <v>7</v>
+      </c>
+      <c r="E384">
+        <v>0.7117378001566976</v>
+      </c>
+      <c r="F384" t="s">
+        <v>15</v>
+      </c>
+      <c r="G384" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>98</v>
+      </c>
+      <c r="C385" t="s">
+        <v>7</v>
+      </c>
+      <c r="D385" t="s">
+        <v>8</v>
+      </c>
+      <c r="E385">
+        <v>0.7131010999437422</v>
+      </c>
+      <c r="F385" t="s">
+        <v>15</v>
+      </c>
+      <c r="G385" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>99</v>
+      </c>
+      <c r="C386" t="s">
+        <v>8</v>
+      </c>
+      <c r="D386" t="s">
+        <v>7</v>
+      </c>
+      <c r="E386">
+        <v>1.322591200005263</v>
+      </c>
+      <c r="F386" t="s">
+        <v>15</v>
+      </c>
+      <c r="G386" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>100</v>
+      </c>
+      <c r="C387" t="s">
+        <v>8</v>
+      </c>
+      <c r="D387" t="s">
+        <v>9</v>
+      </c>
+      <c r="E387">
+        <v>0.6157053997740149</v>
+      </c>
+      <c r="F387" t="s">
+        <v>15</v>
+      </c>
+      <c r="G387" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>101</v>
+      </c>
+      <c r="C388" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388" t="s">
+        <v>7</v>
+      </c>
+      <c r="E388">
+        <v>0.5902150999754667</v>
+      </c>
+      <c r="F388" t="s">
+        <v>15</v>
+      </c>
+      <c r="G388" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>102</v>
+      </c>
+      <c r="C389" t="s">
+        <v>8</v>
+      </c>
+      <c r="D389" t="s">
+        <v>9</v>
+      </c>
+      <c r="E389">
+        <v>0.5901780999265611</v>
+      </c>
+      <c r="F389" t="s">
+        <v>15</v>
+      </c>
+      <c r="G389" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>103</v>
+      </c>
+      <c r="C390" t="s">
+        <v>7</v>
+      </c>
+      <c r="D390" t="s">
+        <v>9</v>
+      </c>
+      <c r="E390">
+        <v>0.7468090998008847</v>
+      </c>
+      <c r="F390" t="s">
+        <v>15</v>
+      </c>
+      <c r="G390" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>104</v>
+      </c>
+      <c r="C391" t="s">
+        <v>7</v>
+      </c>
+      <c r="D391" t="s">
+        <v>6</v>
+      </c>
+      <c r="E391">
+        <v>0.6401636002119631</v>
+      </c>
+      <c r="F391" t="s">
+        <v>15</v>
+      </c>
+      <c r="G391" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -7023,7 +9441,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7031,16 +9449,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7092,6 +9510,23 @@
       </c>
       <c r="E4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.678313928589757</v>
+      </c>
+      <c r="C5">
+        <v>0.7215598371545119</v>
+      </c>
+      <c r="D5">
+        <v>0.9660108286022607</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
